--- a/biology/Botanique/Torilis_nodosa/Torilis_nodosa.xlsx
+++ b/biology/Botanique/Torilis_nodosa/Torilis_nodosa.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Torilis nodosa, le torilis noueux est une petite plante annuelle de la famille des Apiaceae (Ombellifères), originaire d'Eurasie.
 Synonymes :
@@ -515,9 +527,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Torilis nodosa est une plante herbacée, annuelle, de 15 à 35 cm de hauteur[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Torilis nodosa est une plante herbacée, annuelle, de 15 à 35 cm de hauteur.
 La tige est pourvue dans sa partie supérieure de poils apprimés dirigés vers le bas.
 Les feuilles alternes de la base sont bipennatiséquées à segments pennatipartites à lobes linéaires.
 Les fleurs blanches ou roses, petites (corolle de 1 mm), sont disposées en ombelles très resserrées (3-4 rayons à peine visibles). Les inflorescences sont opposées à la feuille, subsessiles. La pollinisation est entomogame.
@@ -551,7 +565,9 @@
           <t>Écologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est une plante commune dans presque toute la France, plus rare dans l'Est et le Sud-Est. On la rencontre aussi dans les pays du pourtour méditerranéen et en Asie. Elle s'est naturalisée aux États-Unis.
 C'est une plante des friches annuelles, subnitrophile, mésoméditerranéenne.
